--- a/03_Planning/ProductBurndown.xlsx
+++ b/03_Planning/ProductBurndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4_Klasse\SYP\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\guideo\03_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5CDEBF-1622-44BD-8D95-7733455A2FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BF5D1-8AEF-4D60-BD6E-44284B58553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Initial</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Velocity (stpts / hour)</t>
+  </si>
+  <si>
+    <t>Report wurde von Rate und Report abgespallten</t>
+  </si>
+  <si>
+    <t>Refactoring wurde hunzugefügt</t>
+  </si>
+  <si>
+    <t>Spike Beacon Api hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -281,142 +290,142 @@
                 <c:formatCode>mmm\ d", "yyyy</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>43857</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43864</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43871</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43878</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43885</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43892</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43899</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43906</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43913</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43920</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43927</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43934</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43941</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43948</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43955</c:v>
+                  <c:v>44092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43962</c:v>
+                  <c:v>44106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43969</c:v>
+                  <c:v>44120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43976</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43983</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43990</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43997</c:v>
+                  <c:v>44176</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44004</c:v>
+                  <c:v>44190</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44011</c:v>
+                  <c:v>44204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44018</c:v>
+                  <c:v>44218</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44025</c:v>
+                  <c:v>44232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44032</c:v>
+                  <c:v>44246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44039</c:v>
+                  <c:v>44260</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44046</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44053</c:v>
+                  <c:v>44288</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44060</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44067</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44074</c:v>
+                  <c:v>44330</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44081</c:v>
+                  <c:v>44344</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44088</c:v>
+                  <c:v>44358</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44095</c:v>
+                  <c:v>44372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44102</c:v>
+                  <c:v>44386</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44109</c:v>
+                  <c:v>44400</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44116</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44123</c:v>
+                  <c:v>44428</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44130</c:v>
+                  <c:v>44442</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44137</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44144</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44151</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44158</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44165</c:v>
+                  <c:v>44512</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44172</c:v>
+                  <c:v>44526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,7 +437,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>54</c:v>
@@ -437,133 +446,133 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.591304347826089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.182608695652178</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.773913043478267</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.365217391304355</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.452173913043488</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.539130434782617</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.626086956521746</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.060869565217399</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.495652173913051</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.930434782608703</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.365217391304355</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.800000000000008</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.23478260869566</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.669565217391312</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.104347826086965</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.539130434782617</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.973913043478269</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.408695652173922</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.8434782608695741</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.2782608695652264</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.7130434782608788</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.1478260869565311</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5826086956521834</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0173913043478355</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,16 +713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84060</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1087,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1107,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1115,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1120,9 +1129,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1135,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1159,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1185,23 +1194,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B7" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7">
         <f>A3</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1216,31 +1225,31 @@
       </c>
       <c r="J7" s="8">
         <f>A3</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" ref="A8:A52" si="1">A7+7</f>
-        <v>43864</v>
+        <f>A7+14</f>
+        <v>43899</v>
       </c>
       <c r="B8" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1248,35 +1257,35 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I52" si="2">I7+E7</f>
-        <v>20</v>
+        <f t="shared" ref="I8:I52" si="1">I7+E7</f>
+        <v>32</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" ref="J8:J52" si="3">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
+        <f t="shared" ref="J8:J52" si="2">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
         <v>54</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K52" si="4">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K8:K52" si="3">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>43871</v>
+        <f t="shared" ref="A9:A52" si="4">A8+14</f>
+        <v>43913</v>
       </c>
       <c r="B9" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F52" si="5">J8+C9</f>
@@ -1284,1599 +1293,1653 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G52" si="6">H8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>6.5789473684210523E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>43878</v>
+        <f t="shared" si="4"/>
+        <v>43927</v>
       </c>
       <c r="B10" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f>G10+D10</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="J10" s="7">
+        <f>MAX(IF(OR(ISBLANK(D10),ISBLANK(E10)),F10-K9*B10,F10-D10),0)</f>
+        <v>54</v>
+      </c>
+      <c r="K10" s="9">
+        <f>IF(OR(ISBLANK(D10),ISBLANK(E10)),K9,H10/(I10+E10))</f>
+        <v>6.5789473684210523E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="4"/>
+        <v>43941</v>
+      </c>
+      <c r="B11" s="6">
         <v>20</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="4"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>43885</v>
-      </c>
-      <c r="B11" s="6">
-        <v>18</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>G11+D11</f>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f>I10+E10</f>
+        <v>76</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
         <v>50</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="4"/>
-        <v>4.2105263157894736E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>43892</v>
+        <f t="shared" si="4"/>
+        <v>43955</v>
       </c>
       <c r="B12" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <f>I11+E11</f>
+        <v>91.5</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="4"/>
+        <v>43969</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="3"/>
+        <v>6.569343065693431E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="4"/>
+        <v>43983</v>
+      </c>
+      <c r="B14" s="6">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E14" s="6">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="3"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="4"/>
+        <v>43997</v>
+      </c>
+      <c r="B15" s="6">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="4"/>
+        <v>44011</v>
+      </c>
+      <c r="B16" s="6">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="4"/>
+        <v>44025</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="4"/>
+        <v>44039</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="4"/>
+        <v>44053</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="4"/>
+        <v>44067</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="7">
+        <f>G20+D20</f>
+        <v>17</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J20" s="7">
+        <f>MAX(IF(OR(ISBLANK(D20),ISBLANK(E20)),F20-K19*B20,F20-D20),0)</f>
+        <v>45</v>
+      </c>
+      <c r="K20" s="9">
+        <f>IF(OR(ISBLANK(D20),ISBLANK(E20)),K19,H20/(I20+E20))</f>
+        <v>9.2391304347826081E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44092</v>
+      </c>
+      <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>43899</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="3"/>
+        <v>9.2391304347826081E-2</v>
+      </c>
+      <c r="L21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="3"/>
-        <v>43.591304347826089</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>43906</v>
-      </c>
-      <c r="B14" s="6">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
-        <f t="shared" si="5"/>
-        <v>43.591304347826089</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>42.182608695652178</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>43913</v>
-      </c>
-      <c r="B15" s="6">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7">
-        <f t="shared" si="5"/>
-        <v>42.182608695652178</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="3"/>
-        <v>40.773913043478267</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>43920</v>
-      </c>
-      <c r="B16" s="6">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <f t="shared" si="5"/>
-        <v>40.773913043478267</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>43927</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
-        <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>43934</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7">
-        <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>43948</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
-        <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>43955</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7">
-        <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>43962</v>
+        <f t="shared" si="4"/>
+        <v>44106</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>43969</v>
+        <f t="shared" si="4"/>
+        <v>44120</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
+        <f t="shared" si="2"/>
+        <v>46.5</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>43976</v>
+        <f t="shared" si="4"/>
+        <v>44134</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
+        <v>46.5</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>G24+D24</f>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="3"/>
-        <v>39.365217391304355</v>
+        <f>MAX(IF(OR(ISBLANK(D24),ISBLANK(E24)),F24-K23*B24,F24-D24),0)</f>
+        <v>44</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(OR(ISBLANK(D24),ISBLANK(E24)),K23,H24/(I24+E24))</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>43983</v>
+        <f t="shared" si="4"/>
+        <v>44148</v>
       </c>
       <c r="B25" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>39.365217391304355</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="3"/>
-        <v>35.452173913043488</v>
+        <f t="shared" si="2"/>
+        <v>41.5</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>43990</v>
+        <f t="shared" si="4"/>
+        <v>44162</v>
       </c>
       <c r="B26" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>35.452173913043488</v>
+        <v>41.5</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="3"/>
-        <v>31.539130434782617</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="1"/>
-        <v>43997</v>
+        <f t="shared" si="4"/>
+        <v>44176</v>
       </c>
       <c r="B27" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="5"/>
-        <v>31.539130434782617</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="3"/>
-        <v>27.626086956521746</v>
+        <f t="shared" si="2"/>
+        <v>36.5</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f t="shared" si="1"/>
-        <v>44004</v>
+        <f t="shared" si="4"/>
+        <v>44190</v>
       </c>
       <c r="B28" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>27.626086956521746</v>
+        <v>36.5</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="3"/>
-        <v>26.060869565217399</v>
+        <f t="shared" si="2"/>
+        <v>36.5</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f t="shared" si="1"/>
-        <v>44011</v>
+        <f t="shared" si="4"/>
+        <v>44204</v>
       </c>
       <c r="B29" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>26.060869565217399</v>
+        <v>36.5</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="3"/>
-        <v>24.495652173913051</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f t="shared" si="1"/>
-        <v>44018</v>
+        <f t="shared" si="4"/>
+        <v>44218</v>
       </c>
       <c r="B30" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7">
         <f t="shared" si="5"/>
-        <v>24.495652173913051</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="3"/>
-        <v>22.930434782608703</v>
+        <f t="shared" si="2"/>
+        <v>31.5</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f t="shared" si="1"/>
-        <v>44025</v>
+        <f t="shared" si="4"/>
+        <v>44232</v>
       </c>
       <c r="B31" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="7">
         <f t="shared" si="5"/>
-        <v>22.930434782608703</v>
+        <v>31.5</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="3"/>
-        <v>21.365217391304355</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f t="shared" si="1"/>
-        <v>44032</v>
+        <f t="shared" si="4"/>
+        <v>44246</v>
       </c>
       <c r="B32" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7">
         <f t="shared" si="5"/>
-        <v>21.365217391304355</v>
+        <v>29</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="3"/>
-        <v>19.800000000000008</v>
+        <f t="shared" si="2"/>
+        <v>26.5</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f t="shared" si="1"/>
-        <v>44039</v>
+        <f t="shared" si="4"/>
+        <v>44260</v>
       </c>
       <c r="B33" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>19.800000000000008</v>
+        <v>26.5</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="3"/>
-        <v>18.23478260869566</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f t="shared" si="1"/>
-        <v>44046</v>
+        <f t="shared" si="4"/>
+        <v>44274</v>
       </c>
       <c r="B34" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>18.23478260869566</v>
+        <v>24</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="3"/>
-        <v>16.669565217391312</v>
+        <f t="shared" si="2"/>
+        <v>21.5</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f t="shared" si="1"/>
-        <v>44053</v>
+        <f t="shared" si="4"/>
+        <v>44288</v>
       </c>
       <c r="B35" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
-        <v>16.669565217391312</v>
+        <v>21.5</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="3"/>
-        <v>15.104347826086965</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f t="shared" si="1"/>
-        <v>44060</v>
+        <f t="shared" si="4"/>
+        <v>44302</v>
       </c>
       <c r="B36" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>15.104347826086965</v>
+        <v>19</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="3"/>
-        <v>13.539130434782617</v>
+        <f t="shared" si="2"/>
+        <v>16.5</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f t="shared" si="1"/>
-        <v>44067</v>
+        <f t="shared" si="4"/>
+        <v>44316</v>
       </c>
       <c r="B37" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>13.539130434782617</v>
+        <v>16.5</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="3"/>
-        <v>11.973913043478269</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f t="shared" si="1"/>
-        <v>44074</v>
+        <f t="shared" si="4"/>
+        <v>44330</v>
       </c>
       <c r="B38" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>11.973913043478269</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="3"/>
-        <v>10.408695652173922</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f t="shared" si="1"/>
-        <v>44081</v>
+        <f t="shared" si="4"/>
+        <v>44344</v>
       </c>
       <c r="B39" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>10.408695652173922</v>
+        <v>11.5</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="3"/>
-        <v>8.8434782608695741</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <f t="shared" si="1"/>
-        <v>44088</v>
+        <f t="shared" si="4"/>
+        <v>44358</v>
       </c>
       <c r="B40" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>8.8434782608695741</v>
+        <v>11.5</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="3"/>
-        <v>7.2782608695652264</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <f t="shared" si="1"/>
-        <v>44095</v>
+        <f t="shared" si="4"/>
+        <v>44372</v>
       </c>
       <c r="B41" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>7.2782608695652264</v>
+        <v>11.5</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="3"/>
-        <v>5.7130434782608788</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <f t="shared" si="1"/>
-        <v>44102</v>
+        <f t="shared" si="4"/>
+        <v>44386</v>
       </c>
       <c r="B42" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>5.7130434782608788</v>
+        <v>11.5</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="3"/>
-        <v>4.1478260869565311</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <f t="shared" si="1"/>
-        <v>44109</v>
+        <f t="shared" si="4"/>
+        <v>44400</v>
       </c>
       <c r="B43" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>4.1478260869565311</v>
+        <v>11.5</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="3"/>
-        <v>2.5826086956521834</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <f t="shared" si="1"/>
-        <v>44116</v>
+        <f t="shared" si="4"/>
+        <v>44414</v>
       </c>
       <c r="B44" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>2.5826086956521834</v>
+        <v>11.5</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0173913043478355</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <f t="shared" si="1"/>
-        <v>44123</v>
+        <f t="shared" si="4"/>
+        <v>44428</v>
       </c>
       <c r="B45" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>1.0173913043478355</v>
+        <v>11.5</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <f t="shared" si="1"/>
-        <v>44130</v>
+        <f t="shared" si="4"/>
+        <v>44442</v>
       </c>
       <c r="B46" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <f t="shared" si="1"/>
-        <v>44137</v>
+        <f t="shared" si="4"/>
+        <v>44456</v>
       </c>
       <c r="B47" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <f t="shared" si="1"/>
-        <v>44144</v>
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="B48" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <f t="shared" si="1"/>
-        <v>44151</v>
+        <f t="shared" si="4"/>
+        <v>44484</v>
       </c>
       <c r="B49" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <f t="shared" si="1"/>
-        <v>44158</v>
+        <f t="shared" si="4"/>
+        <v>44498</v>
       </c>
       <c r="B50" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <f t="shared" si="1"/>
-        <v>44165</v>
+        <f t="shared" si="4"/>
+        <v>44512</v>
       </c>
       <c r="B51" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <f t="shared" si="1"/>
-        <v>44172</v>
+        <f t="shared" si="4"/>
+        <v>44526</v>
       </c>
       <c r="B52" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217397E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <f>SUM(B7:B31)</f>
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>1.5</v>
+        <v>1.0625</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>19.166666666666668</v>
+        <v>12.75</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2891,7 +2954,8 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/03_Planning/ProductBurndown.xlsx
+++ b/03_Planning/ProductBurndown.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\guideo\03_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BF5D1-8AEF-4D60-BD6E-44284B58553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DAE6D1-FF8E-43D7-9717-76DD7489371E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Initial</t>
   </si>
@@ -96,6 +95,27 @@
   <si>
     <t>Spike Beacon Api hinzugefügt</t>
   </si>
+  <si>
+    <t>3 Wochen sprint wegen 1 Woche Herbstferien</t>
+  </si>
+  <si>
+    <t>Streamin -2; Deployment + 1</t>
+  </si>
+  <si>
+    <t>added Image Video for Tadeot</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
+  </si>
+  <si>
+    <t>längerer Sprint wegen Weihnachtsferien</t>
+  </si>
+  <si>
+    <t>länger wegen Weihnachtsferien</t>
+  </si>
+  <si>
+    <t>Project Award</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +149,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +201,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -213,6 +239,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,91 +368,91 @@
                   <c:v>44120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44134</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44148</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44162</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44176</c:v>
+                  <c:v>44183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44190</c:v>
+                  <c:v>44204</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44204</c:v>
+                  <c:v>44218</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44218</c:v>
+                  <c:v>44232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44232</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44246</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44260</c:v>
+                  <c:v>44281</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44274</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44288</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44302</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44316</c:v>
+                  <c:v>44337</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44330</c:v>
+                  <c:v>44351</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44344</c:v>
+                  <c:v>44365</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44358</c:v>
+                  <c:v>44379</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44372</c:v>
+                  <c:v>44393</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44386</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44400</c:v>
+                  <c:v>44421</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44414</c:v>
+                  <c:v>44435</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44428</c:v>
+                  <c:v>44449</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44442</c:v>
+                  <c:v>44463</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44456</c:v>
+                  <c:v>44477</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44470</c:v>
+                  <c:v>44491</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44484</c:v>
+                  <c:v>44505</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44498</c:v>
+                  <c:v>44519</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44512</c:v>
+                  <c:v>44533</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44526</c:v>
+                  <c:v>44547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,142 +464,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>59</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,20 +783,21 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet 1 - Initial"/>
-      <sheetName val="Sheet 1 - Product Burndown"/>
-      <sheetName val="Sheet 1 - Drawings"/>
+      <sheetName val="Tabelle1"/>
+      <sheetName val="Tabelle2"/>
+      <sheetName val="Tabelle3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="J2" t="str">
-            <v>Open Story Points at End</v>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="C7"/>
+          <cell r="D7">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1099,7 +1127,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,12 +1136,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1131,7 +1159,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1145,19 +1173,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1210,7 +1238,7 @@
       </c>
       <c r="F7" s="7">
         <f>A3</f>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1220,15 +1248,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <f>'[1]Sheet 1 - Initial'!C7</f>
+        <f>[1]Tabelle1!C7</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
         <f>A3</f>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K7" s="9">
-        <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
+        <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),[1]Tabelle1!D7,H7/(I7+E7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1249,7 +1277,7 @@
       </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1265,7 +1293,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J52" si="2">MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" ref="K8:K52" si="3">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
@@ -1289,7 +1317,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F52" si="5">J8+C9</f>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G52" si="6">H8</f>
@@ -1305,7 +1333,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
@@ -1329,7 +1357,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="6"/>
@@ -1345,7 +1373,7 @@
       </c>
       <c r="J10" s="7">
         <f>MAX(IF(OR(ISBLANK(D10),ISBLANK(E10)),F10-K9*B10,F10-D10),0)</f>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K10" s="9">
         <f>IF(OR(ISBLANK(D10),ISBLANK(E10)),K9,H10/(I10+E10))</f>
@@ -1369,7 +1397,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
@@ -1385,7 +1413,7 @@
       </c>
       <c r="J11" s="7">
         <f>MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K11" s="9">
         <f>IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
@@ -1409,7 +1437,7 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="6"/>
@@ -1425,7 +1453,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
@@ -1449,7 +1477,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
@@ -1465,7 +1493,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
@@ -1489,7 +1517,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
@@ -1505,7 +1533,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
@@ -1531,7 +1559,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
@@ -1547,7 +1575,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
@@ -1574,7 +1602,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
@@ -1590,7 +1618,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
@@ -1614,7 +1642,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
@@ -1630,7 +1658,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
@@ -1654,7 +1682,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
@@ -1670,7 +1698,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
@@ -1694,7 +1722,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
@@ -1710,7 +1738,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
@@ -1734,7 +1762,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
@@ -1750,7 +1778,7 @@
       </c>
       <c r="J20" s="7">
         <f>MAX(IF(OR(ISBLANK(D20),ISBLANK(E20)),F20-K19*B20,F20-D20),0)</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K20" s="9">
         <f>IF(OR(ISBLANK(D20),ISBLANK(E20)),K19,H20/(I20+E20))</f>
@@ -1775,7 +1803,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
@@ -1791,7 +1819,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
@@ -1820,7 +1848,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
@@ -1836,7 +1864,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
@@ -1855,11 +1883,15 @@
         <v>30</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>16</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
@@ -1867,7 +1899,7 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
@@ -1875,413 +1907,487 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="2"/>
-        <v>46.5</v>
+        <v>22</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>9.5454545454545459E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="4"/>
-        <v>44134</v>
+        <f>A23+21</f>
+        <v>44141</v>
       </c>
       <c r="B24" s="6">
         <v>30</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="6">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>46.5</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H24" s="7">
         <f>G24+D24</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="J24" s="7">
         <f>MAX(IF(OR(ISBLANK(D24),ISBLANK(E24)),F24-K23*B24,F24-D24),0)</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K24" s="9">
         <f>IF(OR(ISBLANK(D24),ISBLANK(E24)),K23,H24/(I24+E24))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>9.583333333333334E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="4"/>
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="B25" s="6">
         <v>30</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>29</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>41.5</v>
+        <v>20</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>9.6654275092936809E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="4"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="B26" s="6">
         <v>30</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>60</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" si="5"/>
-        <v>41.5</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.8145896656534953E-2</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="4"/>
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B27" s="6">
         <v>30</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>40</v>
+      </c>
       <c r="F27" s="7">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f>J26+C27</f>
+        <v>18</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>329</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>14</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.943089430894309E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f t="shared" si="4"/>
-        <v>44190</v>
+        <f>A27+21</f>
+        <v>44204</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
       <c r="F28" s="7">
         <f t="shared" si="5"/>
-        <v>36.5</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>369</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>8</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1015625</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="4"/>
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="B29" s="6">
         <v>30</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6">
+        <v>12</v>
+      </c>
       <c r="F29" s="7">
         <f t="shared" si="5"/>
-        <v>36.5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>G29+D29</f>
+        <v>43</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f>MAX(IF(OR(ISBLANK(D29),ISBLANK(E29)),F29-K28*B29,F29-D29),0)</f>
+        <v>4</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <f>IF(OR(ISBLANK(D29),ISBLANK(E29)),K28,H29/(I29+E29))</f>
+        <v>0.10858585858585859</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="4"/>
-        <v>44218</v>
+        <v>44232</v>
       </c>
       <c r="B30" s="6">
         <v>30</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>17</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>396</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="2"/>
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10653753026634383</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f t="shared" si="4"/>
-        <v>44232</v>
+        <f>A30+21</f>
+        <v>44253</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
       <c r="F31" s="7">
         <f t="shared" si="5"/>
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>413</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10161662817551963</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="4"/>
-        <v>44246</v>
+        <v>44267</v>
       </c>
       <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="6">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>30</v>
+      </c>
       <c r="F32" s="7">
-        <f t="shared" si="5"/>
-        <v>29</v>
+        <f>J31+C32</f>
+        <v>12</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.10151187904967603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="4"/>
-        <v>44260</v>
+        <v>44281</v>
       </c>
       <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="6">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>30</v>
+      </c>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
-        <v>26.5</v>
+        <v>16</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>463</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.10547667342799188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="4"/>
-        <v>44274</v>
+        <v>44295</v>
       </c>
       <c r="B34" s="6">
         <v>30</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
+        <v>25</v>
+      </c>
       <c r="F34" s="7">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>3</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="4"/>
-        <v>44288</v>
+        <v>44309</v>
       </c>
       <c r="B35" s="6">
         <v>30</v>
@@ -2291,33 +2397,36 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="5"/>
-        <v>21.5</v>
+        <v>3</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="4"/>
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="B36" s="6">
         <v>30</v>
@@ -2327,33 +2436,33 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="4"/>
-        <v>44316</v>
+        <v>44337</v>
       </c>
       <c r="B37" s="6">
         <v>30</v>
@@ -2363,33 +2472,33 @@
       <c r="E37" s="6"/>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="4"/>
-        <v>44330</v>
+        <v>44351</v>
       </c>
       <c r="B38" s="6">
         <v>30</v>
@@ -2399,69 +2508,69 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="4"/>
-        <v>44344</v>
+        <v>44365</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="4"/>
-        <v>44358</v>
+        <v>44379</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -2471,33 +2580,33 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="4"/>
-        <v>44372</v>
+        <v>44393</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -2507,33 +2616,33 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="4"/>
-        <v>44386</v>
+        <v>44407</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -2543,33 +2652,33 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="4"/>
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -2579,33 +2688,33 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="4"/>
-        <v>44414</v>
+        <v>44435</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -2615,33 +2724,33 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="4"/>
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -2651,33 +2760,33 @@
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="4"/>
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -2687,33 +2796,33 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="4"/>
-        <v>44456</v>
+        <v>44477</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -2723,33 +2832,33 @@
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.11583011583011583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="4"/>
-        <v>44470</v>
+        <v>44491</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -2759,33 +2868,33 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K48" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11583011583011583</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="4"/>
-        <v>44484</v>
+        <v>44505</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -2795,33 +2904,33 @@
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11583011583011583</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="4"/>
-        <v>44498</v>
+        <v>44519</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -2831,33 +2940,33 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>G50+D50</f>
+        <v>60</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="2"/>
-        <v>11.5</v>
+        <f>MAX(IF(OR(ISBLANK(D50),ISBLANK(E50)),F50-K49*B50,F50-D50),0)</f>
+        <v>0</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <f>IF(OR(ISBLANK(D50),ISBLANK(E50)),K49,H50/(I50+E50))</f>
+        <v>0.11583011583011583</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="4"/>
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -2867,33 +2976,33 @@
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11583011583011583</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="4"/>
-        <v>44526</v>
+        <v>44547</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -2903,43 +3012,43 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K52" s="9">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.11583011583011583</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <f>SUM(B7:B31)</f>
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <f>AVERAGE(D7:D52)</f>
-        <v>1.0625</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="E53" s="11">
         <f>AVERAGE(E7:E52)</f>
-        <v>12.75</v>
+        <v>18.5</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2960,18 +3069,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/03_Planning/ProductBurndown.xlsx
+++ b/03_Planning/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\guideo\03_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DAE6D1-FF8E-43D7-9717-76DD7489371E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A84499-503C-47CF-93FC-126CACEEB1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
